--- a/DataExtraction/Input/MGT7_Newmapping_config.xlsx
+++ b/DataExtraction/Input/MGT7_Newmapping_config.xlsx
@@ -613,6 +613,9 @@
     <t>Holding/ Subsidiary/Associate/  Joint Venture</t>
   </si>
   <si>
+    <t>Holding/Subsidiary/Associate/Joint Venture</t>
+  </si>
+  <si>
     <t>T_ZNCA_MGT_7_S3/DATA</t>
   </si>
   <si>
@@ -653,9 +656,6 @@
   </si>
   <si>
     <t>NAME,DESIGNATION,GROSS_SALARY,COMMISSION,STOCK_OPTION,OTHERS,TOTAL_AMOUNT</t>
-  </si>
-  <si>
-    <t>director_renumeration</t>
   </si>
   <si>
     <t>director_name,designation,gross_salary,commissions,stock_options,others,total_amount</t>
@@ -719,6 +719,11 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Courier New"/>
     </font>
     <font>
@@ -731,11 +736,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="5">
@@ -884,6 +884,21 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -905,13 +920,17 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -929,28 +948,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1083,16 +1087,16 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1101,16 +1105,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1119,73 +1123,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1216,7 +1199,6 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff444444"/>
       <rgbColor rgb="ffbfbfbf"/>
-      <rgbColor rgb="ff881280"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -6019,7 +6001,7 @@
     </row>
     <row r="141" ht="13.55" customHeight="1">
       <c r="A141" t="s" s="44">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B141" t="s" s="45">
         <v>15</v>
@@ -6028,16 +6010,16 @@
         <v>16</v>
       </c>
       <c r="D141" t="s" s="46">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E141" t="s" s="47">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F141" t="s" s="48">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G141" t="s" s="49">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="6"/>
@@ -6057,7 +6039,7 @@
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="s" s="52">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B143" t="s" s="9">
         <v>9</v>
@@ -6069,13 +6051,13 @@
         <v>11</v>
       </c>
       <c r="E143" t="s" s="53">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F143" t="s" s="9">
         <v>194</v>
       </c>
       <c r="G143" t="s" s="13">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="6"/>
@@ -6083,7 +6065,7 @@
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="s" s="52">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B144" t="s" s="9">
         <v>9</v>
@@ -6095,13 +6077,13 @@
         <v>11</v>
       </c>
       <c r="E144" t="s" s="53">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F144" t="s" s="9">
         <v>194</v>
       </c>
       <c r="G144" t="s" s="13">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="6"/>
@@ -6109,7 +6091,7 @@
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="s" s="52">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B145" t="s" s="9">
         <v>9</v>
@@ -6121,13 +6103,13 @@
         <v>11</v>
       </c>
       <c r="E145" t="s" s="53">
+        <v>210</v>
+      </c>
+      <c r="F145" t="s" s="9">
+        <v>211</v>
+      </c>
+      <c r="G145" t="s" s="13">
         <v>209</v>
-      </c>
-      <c r="F145" t="s" s="9">
-        <v>210</v>
-      </c>
-      <c r="G145" t="s" s="13">
-        <v>208</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="6"/>
@@ -6136,8 +6118,8 @@
     <row r="146" ht="13.55" customHeight="1">
       <c r="A146" s="54"/>
       <c r="B146" s="54"/>
-      <c r="C146" s="54"/>
-      <c r="D146" s="55"/>
+      <c r="C146" s="55"/>
+      <c r="D146" s="56"/>
       <c r="E146" s="38"/>
       <c r="F146" s="12"/>
       <c r="G146" s="39"/>
@@ -6146,25 +6128,25 @@
       <c r="J146" s="7"/>
     </row>
     <row r="147" ht="14.4" customHeight="1">
-      <c r="A147" t="s" s="56">
-        <v>211</v>
-      </c>
-      <c r="B147" t="s" s="57">
+      <c r="A147" t="s" s="57">
+        <v>212</v>
+      </c>
+      <c r="B147" t="s" s="58">
         <v>15</v>
       </c>
-      <c r="C147" t="s" s="57">
+      <c r="C147" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="D147" t="s" s="58">
+      <c r="D147" t="s" s="59">
+        <v>213</v>
+      </c>
+      <c r="E147" t="s" s="60">
+        <v>214</v>
+      </c>
+      <c r="F147" t="s" s="61">
         <v>212</v>
       </c>
-      <c r="E147" t="s" s="59">
-        <v>213</v>
-      </c>
-      <c r="F147" t="s" s="60">
-        <v>214</v>
-      </c>
-      <c r="G147" t="s" s="61">
+      <c r="G147" t="s" s="24">
         <v>215</v>
       </c>
       <c r="H147" s="15"/>
@@ -6172,42 +6154,66 @@
       <c r="J147" s="7"/>
     </row>
     <row r="148" ht="13.55" customHeight="1">
-      <c r="A148" s="62"/>
-      <c r="B148" s="63"/>
-      <c r="C148" s="63"/>
-      <c r="D148" t="s" s="64">
+      <c r="A148" t="s" s="57">
+        <v>212</v>
+      </c>
+      <c r="B148" t="s" s="62">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s" s="63">
         <v>216</v>
       </c>
-      <c r="E148" s="65"/>
-      <c r="F148" s="66"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="63"/>
+      <c r="E148" t="s" s="60">
+        <v>214</v>
+      </c>
+      <c r="F148" t="s" s="61">
+        <v>212</v>
+      </c>
+      <c r="G148" t="s" s="24">
+        <v>215</v>
+      </c>
+      <c r="H148" s="64"/>
       <c r="I148" s="6"/>
       <c r="J148" s="7"/>
     </row>
     <row r="149" ht="13.55" customHeight="1">
-      <c r="A149" s="68"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" t="s" s="69">
+      <c r="A149" t="s" s="57">
+        <v>212</v>
+      </c>
+      <c r="B149" t="s" s="62">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s" s="65">
         <v>217</v>
       </c>
-      <c r="E149" s="70"/>
-      <c r="F149" s="71"/>
-      <c r="G149" s="72"/>
+      <c r="E149" t="s" s="66">
+        <v>214</v>
+      </c>
+      <c r="F149" t="s" s="67">
+        <v>212</v>
+      </c>
+      <c r="G149" t="s" s="68">
+        <v>215</v>
+      </c>
       <c r="H149" s="19"/>
       <c r="I149" s="6"/>
       <c r="J149" s="7"/>
     </row>
     <row r="150" ht="14" customHeight="1">
-      <c r="A150" s="73"/>
-      <c r="B150" s="73"/>
-      <c r="C150" s="73"/>
-      <c r="D150" s="73"/>
-      <c r="E150" s="74"/>
-      <c r="F150" s="73"/>
-      <c r="G150" s="75"/>
-      <c r="H150" s="73"/>
+      <c r="A150" s="7"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="54"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="69"/>
+      <c r="F150" s="69"/>
+      <c r="G150" s="70"/>
+      <c r="H150" s="54"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
     </row>
@@ -6216,9 +6222,9 @@
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
-      <c r="E151" s="76"/>
-      <c r="F151" s="76"/>
-      <c r="G151" s="77"/>
+      <c r="E151" s="69"/>
+      <c r="F151" s="69"/>
+      <c r="G151" s="70"/>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
@@ -6228,9 +6234,9 @@
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
-      <c r="E152" s="76"/>
-      <c r="F152" s="76"/>
-      <c r="G152" s="77"/>
+      <c r="E152" s="69"/>
+      <c r="F152" s="69"/>
+      <c r="G152" s="70"/>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -6240,9 +6246,9 @@
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
-      <c r="E153" s="76"/>
-      <c r="F153" s="76"/>
-      <c r="G153" s="77"/>
+      <c r="E153" s="69"/>
+      <c r="F153" s="69"/>
+      <c r="G153" s="70"/>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -6252,9 +6258,9 @@
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
-      <c r="E154" s="76"/>
-      <c r="F154" s="76"/>
-      <c r="G154" s="77"/>
+      <c r="E154" s="69"/>
+      <c r="F154" s="69"/>
+      <c r="G154" s="70"/>
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
@@ -6264,9 +6270,9 @@
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="76"/>
-      <c r="F155" s="76"/>
-      <c r="G155" s="77"/>
+      <c r="E155" s="69"/>
+      <c r="F155" s="69"/>
+      <c r="G155" s="70"/>
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -6276,9 +6282,9 @@
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
-      <c r="E156" s="76"/>
-      <c r="F156" s="76"/>
-      <c r="G156" s="78"/>
+      <c r="E156" s="69"/>
+      <c r="F156" s="69"/>
+      <c r="G156" s="71"/>
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -6288,15 +6294,15 @@
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
-      <c r="E157" s="79"/>
+      <c r="E157" s="72"/>
       <c r="F157" s="7"/>
-      <c r="G157" s="80"/>
+      <c r="G157" s="73"/>
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="39">
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -6330,15 +6336,9 @@
     <mergeCell ref="E100:E101"/>
     <mergeCell ref="F100:F101"/>
     <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G147:G149"/>
     <mergeCell ref="H100:H101"/>
     <mergeCell ref="I100:I101"/>
     <mergeCell ref="J100:J101"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="F147:F149"/>
     <mergeCell ref="H147:H149"/>
     <mergeCell ref="I147:I149"/>
     <mergeCell ref="J147:J149"/>
